--- a/WorkingFolder/Tables/macro_corr_age_gr.xlsx
+++ b/WorkingFolder/Tables/macro_corr_age_gr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="50">
   <si>
     <t>mean:incvar for young</t>
   </si>
@@ -43,124 +43,127 @@
     <t>mean:incskew for old</t>
   </si>
   <si>
+    <t>-0.12</t>
+  </si>
+  <si>
+    <t>-0.24**</t>
+  </si>
+  <si>
+    <t>-0.19*</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>-0.1</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>-0.11</t>
+  </si>
+  <si>
+    <t>-0.05</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>-0.07</t>
+  </si>
+  <si>
+    <t>-0.22*</t>
+  </si>
+  <si>
+    <t>-0.21*</t>
+  </si>
+  <si>
+    <t>-0.16</t>
+  </si>
+  <si>
+    <t>-0.08</t>
+  </si>
+  <si>
+    <t>-0.13</t>
+  </si>
+  <si>
+    <t>-0.18</t>
+  </si>
+  <si>
+    <t>-0.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>-0.06</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>-0.17</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.2*</t>
+  </si>
+  <si>
+    <t>-0.09</t>
+  </si>
+  <si>
+    <t>-0.03</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>-0.23**</t>
+  </si>
+  <si>
+    <t>-0.15</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
     <t>-0.14</t>
   </si>
   <si>
-    <t>-0.24**</t>
-  </si>
-  <si>
-    <t>-0.2*</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>-0.12</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>-0.11</t>
-  </si>
-  <si>
     <t>-0.04</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>-0.07</t>
-  </si>
-  <si>
-    <t>-0.23**</t>
-  </si>
-  <si>
-    <t>-0.22*</t>
-  </si>
-  <si>
-    <t>-0.18</t>
-  </si>
-  <si>
-    <t>-0.08</t>
-  </si>
-  <si>
-    <t>-0.13</t>
-  </si>
-  <si>
-    <t>-0.19</t>
-  </si>
-  <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>-0.05</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>0.18</t>
-  </si>
-  <si>
-    <t>-0.17</t>
-  </si>
-  <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>0.2*</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>-0.09</t>
-  </si>
-  <si>
-    <t>-0.02</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>-0.06</t>
-  </si>
-  <si>
-    <t>-0.21*</t>
-  </si>
-  <si>
-    <t>-0.16</t>
-  </si>
-  <si>
-    <t>-0.1</t>
-  </si>
-  <si>
-    <t>0.11</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>-0.0</t>
   </si>
 </sst>
 </file>
@@ -561,28 +564,28 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -593,28 +596,28 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -625,28 +628,28 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -660,25 +663,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -692,22 +695,22 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
         <v>23</v>
@@ -724,25 +727,25 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
         <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -756,25 +759,25 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -782,31 +785,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -814,7 +817,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -823,22 +826,22 @@
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
         <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -846,31 +849,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="G11" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -878,28 +881,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="J12" t="s">
         <v>14</v>
@@ -910,31 +913,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
         <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H13" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="I13" t="s">
         <v>38</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
